--- a/汕大/面向对象程序设计.xlsx
+++ b/汕大/面向对象程序设计.xlsx
@@ -4,13 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="选择题1" sheetId="1" r:id="rId1"/>
     <sheet name="简答1" sheetId="2" r:id="rId2"/>
     <sheet name="选择题2" sheetId="3" r:id="rId3"/>
     <sheet name="简答题2" sheetId="4" r:id="rId4"/>
+    <sheet name="选择题3" sheetId="5" r:id="rId5"/>
+    <sheet name="简答3" sheetId="6" r:id="rId6"/>
+    <sheet name="选择题4" sheetId="7" r:id="rId7"/>
+    <sheet name="简答4" sheetId="8" r:id="rId8"/>
+    <sheet name="选择5" sheetId="9" r:id="rId9"/>
+    <sheet name="简答5" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -311,6 +317,125 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>665895</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>94650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6838095" cy="4800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>322781</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>56668</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="0"/>
+          <a:ext cx="8552381" cy="3857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>570571</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>141568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15773400" y="0"/>
+          <a:ext cx="7428571" cy="10457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -885,6 +1010,1171 @@
         <a:xfrm>
           <a:off x="11658600" y="0"/>
           <a:ext cx="6085714" cy="4780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>503819</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>170637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8047619" cy="6504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>8667</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>56351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="0"/>
+          <a:ext cx="6866667" cy="6390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>418790</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85330</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15087600" y="0"/>
+          <a:ext cx="2476190" cy="3161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>523467</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9139</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17830800" y="0"/>
+          <a:ext cx="3266667" cy="3085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>666324</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66259</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15087600" y="3257550"/>
+          <a:ext cx="3409524" cy="3323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>685457</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>18663</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18516600" y="3257550"/>
+          <a:ext cx="2742857" cy="3095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209181</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>104377</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6515100"/>
+          <a:ext cx="2952381" cy="3180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571257</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>113901</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="6515100"/>
+          <a:ext cx="1942857" cy="3190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590133</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3333333" cy="4371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>332048</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>18052</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="0"/>
+          <a:ext cx="10619048" cy="7980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>170914</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180590</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4285714" cy="3076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>275676</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66282</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="0"/>
+          <a:ext cx="4390476" cy="3142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>485286</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>94854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="0"/>
+          <a:ext cx="3914286" cy="3171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>618448</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>56758</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12344400" y="0"/>
+          <a:ext cx="5419048" cy="3133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>152124</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>94854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17830800" y="0"/>
+          <a:ext cx="2209524" cy="3171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>94895</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3257550"/>
+          <a:ext cx="2838095" cy="3200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>332905</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66259</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="3257550"/>
+          <a:ext cx="3761905" cy="3323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>27971</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>56758</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="3257550"/>
+          <a:ext cx="4828571" cy="3133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>218190</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11658600" y="3257550"/>
+          <a:ext cx="7076190" cy="3104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>456800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>161520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6515100"/>
+          <a:ext cx="3200000" cy="3238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>675590</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>132836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5476190" cy="4114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>351267</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>75783</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="0"/>
+          <a:ext cx="9266667" cy="3333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>132905</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171044</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3561905" cy="3247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>418533</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="0"/>
+          <a:ext cx="4533333" cy="3266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>599657</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66259</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="0"/>
+          <a:ext cx="3342857" cy="3323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>618448</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>113924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11658600" y="0"/>
+          <a:ext cx="5419048" cy="3009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323381</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>75806</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3438525"/>
+          <a:ext cx="3752381" cy="3152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523467</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47234</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="3438525"/>
+          <a:ext cx="3266667" cy="3123809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>618790</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="3438525"/>
+          <a:ext cx="2676190" cy="3266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571086</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>94831</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9601200" y="3438525"/>
+          <a:ext cx="3314286" cy="3352381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1174,6 +2464,22 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
@@ -1210,7 +2516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
@@ -1220,4 +2526,85 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB58" sqref="AB58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P46" sqref="P46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>